--- a/src/excel/test1.xlsx
+++ b/src/excel/test1.xlsx
@@ -19,9 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>&amp;{table:score}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>${table:subject.id}</t>
+  </si>
+  <si>
+    <t>${table:subject.name}</t>
+  </si>
+  <si>
+    <t>${table:subject.type}</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>NodeJs</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Offline</t>
   </si>
 </sst>
 </file>
@@ -339,17 +363,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
